--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/combined.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/combined.xlsx
@@ -5,22 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\TestingSuite\Assets\Studies\CHI26_Study1_Funneling\data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\TestingSuite\Assets\Studies\CHI26_Study1_Funneling\data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B067203-780B-48DF-80A0-2308F6AFEBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CDB7EE-D34A-451A-9F41-F70C542D1472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8ECC188E-B34C-43EC-902B-AC627806FF10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8ECC188E-B34C-43EC-902B-AC627806FF10}"/>
   </bookViews>
   <sheets>
     <sheet name="by_temperature" sheetId="1" r:id="rId1"/>
     <sheet name="by_duration" sheetId="2" r:id="rId2"/>
     <sheet name="by_location" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
   <si>
     <t>L1</t>
   </si>
@@ -60,6 +56,9 @@
   </si>
   <si>
     <t>P18</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1842,6 +1841,792 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Average Accuracy of Temp and Location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-F021-484E-9C31-69CAF26A926E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>by_temperature!$P$24:$P$42</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>L1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>L2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>L3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>L5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>by_temperature!$T$24:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F021-484E-9C31-69CAF26A926E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1507408320"/>
+        <c:axId val="1507387680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1507408320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507387680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507387680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507408320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Probability of Correct Location by</a:t>
             </a:r>
             <a:r>
@@ -2414,7 +3199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3020,7 +3805,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3624,7 +4409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4468,6 +5253,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6984,6 +7809,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7559,6 +8887,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FB7182-5093-72EE-DB44-84C338EEADD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7729,190 +9093,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="p18_trial_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="S2">
-            <v>-15</v>
-          </cell>
-          <cell r="T2">
-            <v>0.72</v>
-          </cell>
-          <cell r="U2">
-            <v>0.86</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="S3">
-            <v>-12</v>
-          </cell>
-          <cell r="T3">
-            <v>0.68</v>
-          </cell>
-          <cell r="U3">
-            <v>0.62</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="S4">
-            <v>0</v>
-          </cell>
-          <cell r="T4">
-            <v>0.76</v>
-          </cell>
-          <cell r="U4">
-            <v>0.96</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5">
-            <v>6</v>
-          </cell>
-          <cell r="T5">
-            <v>0.66</v>
-          </cell>
-          <cell r="U5">
-            <v>0.98</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="S6">
-            <v>9</v>
-          </cell>
-          <cell r="T6">
-            <v>0.72</v>
-          </cell>
-          <cell r="U6">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="S8">
-            <v>0.1</v>
-          </cell>
-          <cell r="T8">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9">
-            <v>0.5</v>
-          </cell>
-          <cell r="T9">
-            <v>0.74</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10">
-            <v>1</v>
-          </cell>
-          <cell r="T10">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11">
-            <v>1.5</v>
-          </cell>
-          <cell r="T11">
-            <v>0.72</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12">
-            <v>2</v>
-          </cell>
-          <cell r="T12">
-            <v>0.76</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="p17_trial_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="14">
-          <cell r="S14" t="str">
-            <v>L1</v>
-          </cell>
-          <cell r="T14">
-            <v>0.26</v>
-          </cell>
-          <cell r="U14">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="S15" t="str">
-            <v>L2</v>
-          </cell>
-          <cell r="T15">
-            <v>0.4</v>
-          </cell>
-          <cell r="U15">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="S16" t="str">
-            <v>L3</v>
-          </cell>
-          <cell r="T16">
-            <v>0.3</v>
-          </cell>
-          <cell r="U16">
-            <v>0.38</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="S17" t="str">
-            <v>L4</v>
-          </cell>
-          <cell r="T17">
-            <v>0.02</v>
-          </cell>
-          <cell r="U17">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="S18" t="str">
-            <v>L5</v>
-          </cell>
-          <cell r="T18">
-            <v>0.02</v>
-          </cell>
-          <cell r="U18">
-            <v>0.32</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8230,10 +9410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7DAFA-5813-4033-B645-0D375594750B}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8431,6 +9611,296 @@
       </c>
       <c r="D11">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <f>152/250</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="P24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <f>23/250</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(M24,Q24)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>-15</v>
+      </c>
+      <c r="M26">
+        <v>0.62</v>
+      </c>
+      <c r="P26">
+        <v>-15</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGE(M26,Q26)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>-12</v>
+      </c>
+      <c r="M27">
+        <v>0.4</v>
+      </c>
+      <c r="P27">
+        <v>-12</v>
+      </c>
+      <c r="Q27">
+        <v>0.06</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27:T42" si="0">AVERAGE(M27,Q27)</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0.74</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.16</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>0.64</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>0.08</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>0.64</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>0.16</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <v>0.38</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>0.08</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <v>0.68</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.72</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0.06</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1.5</v>
+      </c>
+      <c r="M35">
+        <v>0.62</v>
+      </c>
+      <c r="P35">
+        <v>1.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.12</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0.64</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="38" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.72</v>
+      </c>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.18</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>0.16</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0.4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>0.54</v>
+      </c>
+      <c r="P41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>0.02</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0.82</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -8654,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756BB55A-CD81-4EE1-B11C-B8CF78B43AAA}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
